--- a/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
+++ b/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankajab\eclipse-workspace\NRGTestEnvironment\NRGAutomationlatest.zip_expanded\NRGAutomation\src\test\resources\DataReader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cog_sjanar\git\repository\Business%20Solutions%20IT%20Integration\NRGAutomation\src\test\resources\DataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CDCB8F-E340-4F50-BAFE-9228BE1F63D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C3899-63E7-4567-BF6D-D730310A5E18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{E0518BE6-FDCB-46FF-9FBF-135560E54FF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E0518BE6-FDCB-46FF-9FBF-135560E54FF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>Short Form General Terms</t>
   </si>
   <si>
-    <t>Test for Demos</t>
+    <t>TEstOpp2</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="5">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="G2" s="5">
         <v>46690</v>

--- a/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
+++ b/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cog_sjanar\git\repository\Business%20Solutions%20IT%20Integration\NRGAutomation\src\test\resources\DataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C3899-63E7-4567-BF6D-D730310A5E18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7B1AF-6971-46B9-B1CD-A283026810AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E0518BE6-FDCB-46FF-9FBF-135560E54FF1}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>Short Form General Terms</t>
   </si>
   <si>
-    <t>TEstOpp2</t>
+    <t>TEstOpp3</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B520802-9328-44E2-AD36-D3150703C4AC}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
+++ b/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cog_sjanar\git\repository\Business%20Solutions%20IT%20Integration\NRGAutomation\src\test\resources\DataReader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankajab\eclipse-workspace\Latest119\NRGAutomation.zip_expanded\NRGAutomation\src\test\resources\DataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7B1AF-6971-46B9-B1CD-A283026810AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799CDB1E-B152-4A1E-A8AD-487242CDEEB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E0518BE6-FDCB-46FF-9FBF-135560E54FF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{E0518BE6-FDCB-46FF-9FBF-135560E54FF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>Short Form General Terms</t>
   </si>
   <si>
-    <t>TEstOpp3</t>
+    <t>TEstOppty</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
+++ b/NRGAutomation/src/test/resources/DataReader/DSPTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankajab\eclipse-workspace\Latest119\NRGAutomation.zip_expanded\NRGAutomation\src\test\resources\DataReader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankajab\eclipse-workspace\Latest\November\Monday\NRGAutomationlatest.zip_expanded\NRGAutomation\src\test\resources\DataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799CDB1E-B152-4A1E-A8AD-487242CDEEB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFA981-B920-4B03-BE71-DCF24A3701E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{E0518BE6-FDCB-46FF-9FBF-135560E54FF1}"/>
   </bookViews>
@@ -84,50 +84,57 @@
     <t>HHOWARD</t>
   </si>
   <si>
+    <t>Evaluator</t>
+  </si>
+  <si>
+    <t>RERGScore</t>
+  </si>
+  <si>
+    <t>a+</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>CreditReviewResult</t>
+  </si>
+  <si>
+    <t>Approved - D &amp; B</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Automated Approval</t>
+  </si>
+  <si>
+    <t>sridhar.dhusa@nrg.com</t>
+  </si>
+  <si>
+    <t>Short Form General Terms</t>
+  </si>
+  <si>
     <t>ADAMS GROCERY</t>
   </si>
   <si>
-    <t>Evaluator</t>
-  </si>
-  <si>
-    <t>RERGScore</t>
-  </si>
-  <si>
-    <t>a+</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>CreditReviewResult</t>
-  </si>
-  <si>
-    <t>Approved - D &amp; B</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Automated Approval</t>
-  </si>
-  <si>
-    <t>sridhar.dhusa@nrg.com</t>
-  </si>
-  <si>
-    <t>Short Form General Terms</t>
-  </si>
-  <si>
-    <t>TEstOppty</t>
+    <t>Renw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,15 +181,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,36 +680,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="19.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="19.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -709,37 +719,37 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -750,8 +760,8 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="5">
-        <v>44499</v>
+      <c r="C2" s="2">
+        <v>44516</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
@@ -759,26 +769,26 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5">
-        <v>44508</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="2">
+        <v>44516</v>
+      </c>
+      <c r="G2" s="2">
         <v>46690</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
+      <c r="I2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -787,19 +797,20 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>